--- a/Code/Results/Cases/Case_3_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006893253976132</v>
+        <v>1.030832953909584</v>
       </c>
       <c r="D2">
-        <v>1.027983979609928</v>
+        <v>1.04154846395327</v>
       </c>
       <c r="E2">
-        <v>1.012416057822199</v>
+        <v>1.030489117611669</v>
       </c>
       <c r="F2">
-        <v>1.033746419077045</v>
+        <v>1.052339690071501</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04647229970251</v>
+        <v>1.038538951906923</v>
       </c>
       <c r="J2">
-        <v>1.028869725790694</v>
+        <v>1.035972018432981</v>
       </c>
       <c r="K2">
-        <v>1.039066747862392</v>
+        <v>1.044327666703657</v>
       </c>
       <c r="L2">
-        <v>1.02370508538262</v>
+        <v>1.033299981444586</v>
       </c>
       <c r="M2">
-        <v>1.044754810544994</v>
+        <v>1.055088694902679</v>
       </c>
       <c r="N2">
-        <v>1.013511817299246</v>
+        <v>1.01598494316569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010499071730464</v>
+        <v>1.03160493092163</v>
       </c>
       <c r="D3">
-        <v>1.03075145254279</v>
+        <v>1.042169336270755</v>
       </c>
       <c r="E3">
-        <v>1.015235881659091</v>
+        <v>1.031140494892122</v>
       </c>
       <c r="F3">
-        <v>1.037160928201335</v>
+        <v>1.053127480209819</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047471499652516</v>
+        <v>1.038712502810314</v>
       </c>
       <c r="J3">
-        <v>1.030707556659996</v>
+        <v>1.036386520944202</v>
       </c>
       <c r="K3">
-        <v>1.041005419814878</v>
+        <v>1.044759687535406</v>
       </c>
       <c r="L3">
-        <v>1.025677458527082</v>
+        <v>1.033760146016331</v>
       </c>
       <c r="M3">
-        <v>1.047339421384267</v>
+        <v>1.055689375381174</v>
       </c>
       <c r="N3">
-        <v>1.014129510283028</v>
+        <v>1.016123405705688</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012792324726451</v>
+        <v>1.032105203430294</v>
       </c>
       <c r="D4">
-        <v>1.03251451771659</v>
+        <v>1.042571755423777</v>
       </c>
       <c r="E4">
-        <v>1.017034955575989</v>
+        <v>1.031563012118707</v>
       </c>
       <c r="F4">
-        <v>1.039337265005895</v>
+        <v>1.053638302146798</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048099439205776</v>
+        <v>1.038824021425752</v>
       </c>
       <c r="J4">
-        <v>1.031874367060894</v>
+        <v>1.036654797599265</v>
       </c>
       <c r="K4">
-        <v>1.042235741006972</v>
+        <v>1.045039213645047</v>
       </c>
       <c r="L4">
-        <v>1.026932040857493</v>
+        <v>1.034058249533407</v>
       </c>
       <c r="M4">
-        <v>1.048983019481012</v>
+        <v>1.056078464758798</v>
       </c>
       <c r="N4">
-        <v>1.014521567903177</v>
+        <v>1.01621299114758</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013747115881983</v>
+        <v>1.032315696053148</v>
       </c>
       <c r="D5">
-        <v>1.033249248167869</v>
+        <v>1.042741091645451</v>
       </c>
       <c r="E5">
-        <v>1.017785333719196</v>
+        <v>1.031740883575571</v>
       </c>
       <c r="F5">
-        <v>1.040244491262861</v>
+        <v>1.053853305417767</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048359043501314</v>
+        <v>1.038870716226649</v>
       </c>
       <c r="J5">
-        <v>1.032359656455321</v>
+        <v>1.036767595527379</v>
       </c>
       <c r="K5">
-        <v>1.042747317396713</v>
+        <v>1.045156720122057</v>
       </c>
       <c r="L5">
-        <v>1.027454401175474</v>
+        <v>1.034183653680741</v>
       </c>
       <c r="M5">
-        <v>1.049667253862755</v>
+        <v>1.056242134006925</v>
       </c>
       <c r="N5">
-        <v>1.014684601714075</v>
+        <v>1.016250650210453</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013906892325263</v>
+        <v>1.032351049076695</v>
       </c>
       <c r="D6">
-        <v>1.033372238336023</v>
+        <v>1.042769533221081</v>
       </c>
       <c r="E6">
-        <v>1.01791098105219</v>
+        <v>1.031770763297603</v>
       </c>
       <c r="F6">
-        <v>1.040396372736002</v>
+        <v>1.053889420227764</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048402377359327</v>
+        <v>1.038878545463829</v>
       </c>
       <c r="J6">
-        <v>1.032440835006557</v>
+        <v>1.036786535602795</v>
       </c>
       <c r="K6">
-        <v>1.04283288553937</v>
+        <v>1.045176449565029</v>
       </c>
       <c r="L6">
-        <v>1.027541814181324</v>
+        <v>1.034204714321173</v>
       </c>
       <c r="M6">
-        <v>1.049781749603715</v>
+        <v>1.056269620374526</v>
       </c>
       <c r="N6">
-        <v>1.014711872129844</v>
+        <v>1.01625697316296</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012805118851668</v>
+        <v>1.032108015345763</v>
       </c>
       <c r="D7">
-        <v>1.032524360399821</v>
+        <v>1.042574017479549</v>
       </c>
       <c r="E7">
-        <v>1.017045005343711</v>
+        <v>1.031565387884792</v>
       </c>
       <c r="F7">
-        <v>1.039349417407798</v>
+        <v>1.053641174036813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04810292517129</v>
+        <v>1.038824646102189</v>
       </c>
       <c r="J7">
-        <v>1.031880871942882</v>
+        <v>1.036656304755705</v>
       </c>
       <c r="K7">
-        <v>1.042242598754802</v>
+        <v>1.045040783798916</v>
       </c>
       <c r="L7">
-        <v>1.026939040407752</v>
+        <v>1.034059924871648</v>
       </c>
       <c r="M7">
-        <v>1.04899218850061</v>
+        <v>1.056080651340092</v>
       </c>
       <c r="N7">
-        <v>1.014523753339795</v>
+        <v>1.016213494360868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008120296692645</v>
+        <v>1.031093690347325</v>
       </c>
       <c r="D8">
-        <v>1.02892509056326</v>
+        <v>1.041758150077691</v>
       </c>
       <c r="E8">
-        <v>1.013374418268229</v>
+        <v>1.030709038620623</v>
       </c>
       <c r="F8">
-        <v>1.034907348666152</v>
+        <v>1.052605704762043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046813882584163</v>
+        <v>1.038597765363863</v>
       </c>
       <c r="J8">
-        <v>1.029495540307418</v>
+        <v>1.036112087068614</v>
       </c>
       <c r="K8">
-        <v>1.039727004631104</v>
+        <v>1.044473673489148</v>
       </c>
       <c r="L8">
-        <v>1.024376221603389</v>
+        <v>1.033455423636187</v>
       </c>
       <c r="M8">
-        <v>1.045634360061706</v>
+        <v>1.055291611909925</v>
       </c>
       <c r="N8">
-        <v>1.013722173988295</v>
+        <v>1.016031738819176</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9995462818483852</v>
+        <v>1.029312162420187</v>
       </c>
       <c r="D9">
-        <v>1.022363122223289</v>
+        <v>1.040325730714888</v>
       </c>
       <c r="E9">
-        <v>1.006703192289176</v>
+        <v>1.029208037789819</v>
       </c>
       <c r="F9">
-        <v>1.026816528499079</v>
+        <v>1.050789360581854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044396434136671</v>
+        <v>1.038192030413034</v>
       </c>
       <c r="J9">
-        <v>1.025115072252788</v>
+        <v>1.035153669020431</v>
       </c>
       <c r="K9">
-        <v>1.035103501521989</v>
+        <v>1.043474261674146</v>
       </c>
       <c r="L9">
-        <v>1.019688443052152</v>
+        <v>1.032392932181632</v>
       </c>
       <c r="M9">
-        <v>1.039489009089448</v>
+        <v>1.053904436500924</v>
       </c>
       <c r="N9">
-        <v>1.012249381739773</v>
+        <v>1.015711414147361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9935972448120585</v>
+        <v>1.028128519707042</v>
       </c>
       <c r="D10">
-        <v>1.017829681388671</v>
+        <v>1.039374427448117</v>
       </c>
       <c r="E10">
-        <v>1.002108053452428</v>
+        <v>1.028212865393521</v>
       </c>
       <c r="F10">
-        <v>1.02123103127679</v>
+        <v>1.04958416665052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042681565776255</v>
+        <v>1.037917592704554</v>
       </c>
       <c r="J10">
-        <v>1.022067218725513</v>
+        <v>1.034515182027132</v>
       </c>
       <c r="K10">
-        <v>1.031884308491193</v>
+        <v>1.042808012756944</v>
       </c>
       <c r="L10">
-        <v>1.016439350370812</v>
+        <v>1.031686519166907</v>
       </c>
       <c r="M10">
-        <v>1.035227249436294</v>
+        <v>1.052981922494564</v>
       </c>
       <c r="N10">
-        <v>1.011224244527996</v>
+        <v>1.015497860858315</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9909615427134899</v>
+        <v>1.027616972441739</v>
       </c>
       <c r="D11">
-        <v>1.015826358084725</v>
+        <v>1.038963391682741</v>
       </c>
       <c r="E11">
-        <v>1.000080683637352</v>
+        <v>1.027783273283039</v>
       </c>
       <c r="F11">
-        <v>1.018763565639242</v>
+        <v>1.049063684833333</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041913318019548</v>
+        <v>1.03779783183638</v>
       </c>
       <c r="J11">
-        <v>1.020715226857283</v>
+        <v>1.034238835748236</v>
       </c>
       <c r="K11">
-        <v>1.030455859322293</v>
+        <v>1.04251954410532</v>
       </c>
       <c r="L11">
-        <v>1.015001078543518</v>
+        <v>1.031381107302203</v>
       </c>
       <c r="M11">
-        <v>1.033340096380649</v>
+        <v>1.05258302527904</v>
       </c>
       <c r="N11">
-        <v>1.010769438109351</v>
+        <v>1.01540539521777</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9899731513096113</v>
+        <v>1.027427109887987</v>
       </c>
       <c r="D12">
-        <v>1.015075941244476</v>
+        <v>1.038810849671759</v>
       </c>
       <c r="E12">
-        <v>0.9993217384500579</v>
+        <v>1.027623904641162</v>
       </c>
       <c r="F12">
-        <v>1.017839381922377</v>
+        <v>1.048870563589304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041623986711683</v>
+        <v>1.037753208769721</v>
       </c>
       <c r="J12">
-        <v>1.020208012145886</v>
+        <v>1.03413620825768</v>
       </c>
       <c r="K12">
-        <v>1.02991989957436</v>
+        <v>1.04241239873056</v>
       </c>
       <c r="L12">
-        <v>1.014461944427197</v>
+        <v>1.031267735812091</v>
       </c>
       <c r="M12">
-        <v>1.032632606425669</v>
+        <v>1.052434942728683</v>
       </c>
       <c r="N12">
-        <v>1.010598804463796</v>
+        <v>1.015371050510843</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9901855955000427</v>
+        <v>1.02746782928165</v>
       </c>
       <c r="D13">
-        <v>1.015237196926058</v>
+        <v>1.038843564310394</v>
       </c>
       <c r="E13">
-        <v>0.9994848051835061</v>
+        <v>1.027658080627266</v>
       </c>
       <c r="F13">
-        <v>1.01803797410594</v>
+        <v>1.048911979262937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041686230719215</v>
+        <v>1.037762786825672</v>
       </c>
       <c r="J13">
-        <v>1.020317041787882</v>
+        <v>1.034158221283785</v>
       </c>
       <c r="K13">
-        <v>1.030035110834585</v>
+        <v>1.042435381539321</v>
       </c>
       <c r="L13">
-        <v>1.01457781506043</v>
+        <v>1.031292051095675</v>
       </c>
       <c r="M13">
-        <v>1.032784664331437</v>
+        <v>1.052466703032886</v>
       </c>
       <c r="N13">
-        <v>1.010635483783404</v>
+        <v>1.015378417507104</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9908800355970487</v>
+        <v>1.02760127529538</v>
       </c>
       <c r="D14">
-        <v>1.015764458188163</v>
+        <v>1.03895077974733</v>
       </c>
       <c r="E14">
-        <v>1.000018070535984</v>
+        <v>1.027770095709217</v>
       </c>
       <c r="F14">
-        <v>1.01868733037051</v>
+        <v>1.049047717096826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04188948343833</v>
+        <v>1.037794146101454</v>
       </c>
       <c r="J14">
-        <v>1.020673403904375</v>
+        <v>1.034230352115562</v>
       </c>
       <c r="K14">
-        <v>1.030411667370511</v>
+        <v>1.04251068733017</v>
       </c>
       <c r="L14">
-        <v>1.014956614494787</v>
+        <v>1.031371734500386</v>
       </c>
       <c r="M14">
-        <v>1.033281749421009</v>
+        <v>1.052570782971363</v>
       </c>
       <c r="N14">
-        <v>1.010755368472195</v>
+        <v>1.015402556247273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9913066485287351</v>
+        <v>1.027683515575282</v>
       </c>
       <c r="D15">
-        <v>1.016088480039836</v>
+        <v>1.039016856662816</v>
       </c>
       <c r="E15">
-        <v>1.000345845267496</v>
+        <v>1.027839138593696</v>
       </c>
       <c r="F15">
-        <v>1.019086396043358</v>
+        <v>1.049131377402729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042014184741381</v>
+        <v>1.037813449251359</v>
       </c>
       <c r="J15">
-        <v>1.020892299016032</v>
+        <v>1.034274796969239</v>
       </c>
       <c r="K15">
-        <v>1.030642959013271</v>
+        <v>1.042557086384255</v>
       </c>
       <c r="L15">
-        <v>1.015189351047816</v>
+        <v>1.031420839671908</v>
       </c>
       <c r="M15">
-        <v>1.033587148966018</v>
+        <v>1.052634921460633</v>
       </c>
       <c r="N15">
-        <v>1.010829006546593</v>
+        <v>1.015417429088865</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9937708755416371</v>
+        <v>1.028162490184197</v>
       </c>
       <c r="D16">
-        <v>1.017961766064012</v>
+        <v>1.039401725354505</v>
       </c>
       <c r="E16">
-        <v>1.002241790467532</v>
+        <v>1.028241404080678</v>
       </c>
       <c r="F16">
-        <v>1.021393732363847</v>
+        <v>1.049618738481409</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042732001241294</v>
+        <v>1.037925521365476</v>
       </c>
       <c r="J16">
-        <v>1.022156251381791</v>
+        <v>1.03453352492398</v>
       </c>
       <c r="K16">
-        <v>1.031978367203961</v>
+        <v>1.042827158052248</v>
       </c>
       <c r="L16">
-        <v>1.01653412720896</v>
+        <v>1.031706798370745</v>
       </c>
       <c r="M16">
-        <v>1.035351593053504</v>
+        <v>1.053008407894739</v>
       </c>
       <c r="N16">
-        <v>1.011254193645803</v>
+        <v>1.015503997632247</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9953003526230998</v>
+        <v>1.02846320148616</v>
       </c>
       <c r="D17">
-        <v>1.019125872415977</v>
+        <v>1.039643381649915</v>
       </c>
       <c r="E17">
-        <v>1.003420826688867</v>
+        <v>1.028494090551367</v>
       </c>
       <c r="F17">
-        <v>1.022827755884895</v>
+        <v>1.04992481697765</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043175313219361</v>
+        <v>1.037995573482124</v>
       </c>
       <c r="J17">
-        <v>1.022940337057019</v>
+        <v>1.034695851981004</v>
       </c>
       <c r="K17">
-        <v>1.032806665079941</v>
+        <v>1.042996573691336</v>
       </c>
       <c r="L17">
-        <v>1.017369141101804</v>
+        <v>1.031886299513636</v>
       </c>
       <c r="M17">
-        <v>1.036447030192244</v>
+        <v>1.053242836642082</v>
       </c>
       <c r="N17">
-        <v>1.011517939692594</v>
+        <v>1.015558301305822</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9961867358350266</v>
+        <v>1.028638695516312</v>
       </c>
       <c r="D18">
-        <v>1.019801002887681</v>
+        <v>1.039784420914945</v>
       </c>
       <c r="E18">
-        <v>1.004104922846749</v>
+        <v>1.028641605913258</v>
       </c>
       <c r="F18">
-        <v>1.023659500266828</v>
+        <v>1.050103479911044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043431417728678</v>
+        <v>1.038036344149508</v>
       </c>
       <c r="J18">
-        <v>1.023394581793752</v>
+        <v>1.034790546363701</v>
       </c>
       <c r="K18">
-        <v>1.033286479733147</v>
+        <v>1.043095392944237</v>
       </c>
       <c r="L18">
-        <v>1.017853174180203</v>
+        <v>1.031991044704371</v>
       </c>
       <c r="M18">
-        <v>1.037081965518269</v>
+        <v>1.053379628622207</v>
       </c>
       <c r="N18">
-        <v>1.01167072924085</v>
+        <v>1.01558997610563</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9964880086767332</v>
+        <v>1.02869855036614</v>
       </c>
       <c r="D19">
-        <v>1.020030554984924</v>
+        <v>1.039832526055053</v>
       </c>
       <c r="E19">
-        <v>1.004337575586359</v>
+        <v>1.028691926423018</v>
       </c>
       <c r="F19">
-        <v>1.02394231599979</v>
+        <v>1.05016442176333</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043518326691286</v>
+        <v>1.038050230680336</v>
       </c>
       <c r="J19">
-        <v>1.023548947129226</v>
+        <v>1.034822836653465</v>
       </c>
       <c r="K19">
-        <v>1.033449526866998</v>
+        <v>1.04312908804566</v>
       </c>
       <c r="L19">
-        <v>1.01801771061517</v>
+        <v>1.032026767729915</v>
       </c>
       <c r="M19">
-        <v>1.037297788189448</v>
+        <v>1.053426280196295</v>
       </c>
       <c r="N19">
-        <v>1.011722650312583</v>
+        <v>1.01560077644413</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9951368502203961</v>
+        <v>1.028430928250044</v>
       </c>
       <c r="D20">
-        <v>1.01900137710438</v>
+        <v>1.039617445385332</v>
       </c>
       <c r="E20">
-        <v>1.00329470290698</v>
+        <v>1.028466966469387</v>
       </c>
       <c r="F20">
-        <v>1.022674386779052</v>
+        <v>1.049891963927565</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043128006485995</v>
+        <v>1.037988066809464</v>
       </c>
       <c r="J20">
-        <v>1.022856533913109</v>
+        <v>1.034678434598092</v>
       </c>
       <c r="K20">
-        <v>1.032718141001571</v>
+        <v>1.042978396781357</v>
       </c>
       <c r="L20">
-        <v>1.017279865281506</v>
+        <v>1.031867036052456</v>
       </c>
       <c r="M20">
-        <v>1.036329917100721</v>
+        <v>1.053217679092395</v>
       </c>
       <c r="N20">
-        <v>1.011489751159247</v>
+        <v>1.015552474992092</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9906758023998717</v>
+        <v>1.027561974644841</v>
       </c>
       <c r="D21">
-        <v>1.015609368577367</v>
+        <v>1.03891920373114</v>
       </c>
       <c r="E21">
-        <v>0.999861201707101</v>
+        <v>1.027737104494469</v>
       </c>
       <c r="F21">
-        <v>1.018496325071382</v>
+        <v>1.04900773990356</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04182974107122</v>
+        <v>1.03778491539449</v>
       </c>
       <c r="J21">
-        <v>1.020568604338563</v>
+        <v>1.034209110825226</v>
       </c>
       <c r="K21">
-        <v>1.03030093062624</v>
+        <v>1.042488511509257</v>
       </c>
       <c r="L21">
-        <v>1.014845204142082</v>
+        <v>1.031348267721955</v>
       </c>
       <c r="M21">
-        <v>1.033135552149014</v>
+        <v>1.052540131644467</v>
       </c>
       <c r="N21">
-        <v>1.010720112785222</v>
+        <v>1.015395447954233</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9878165133891904</v>
+        <v>1.027016491357679</v>
       </c>
       <c r="D22">
-        <v>1.013440140658328</v>
+        <v>1.038480973412604</v>
       </c>
       <c r="E22">
-        <v>0.9976682222235456</v>
+        <v>1.027279375219727</v>
       </c>
       <c r="F22">
-        <v>1.015824945466137</v>
+        <v>1.048453002793626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040990443311248</v>
+        <v>1.037656384840167</v>
       </c>
       <c r="J22">
-        <v>1.019100924850172</v>
+        <v>1.033914143702942</v>
       </c>
       <c r="K22">
-        <v>1.028749966305926</v>
+        <v>1.042180529279563</v>
       </c>
       <c r="L22">
-        <v>1.013286014047243</v>
+        <v>1.031022515235892</v>
       </c>
       <c r="M22">
-        <v>1.031089293271078</v>
+        <v>1.05211462707166</v>
       </c>
       <c r="N22">
-        <v>1.010226353592586</v>
+        <v>1.015296725716248</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9893375774433937</v>
+        <v>1.027305579972314</v>
       </c>
       <c r="D23">
-        <v>1.014593634959617</v>
+        <v>1.038713212798998</v>
       </c>
       <c r="E23">
-        <v>0.9988340852838631</v>
+        <v>1.027521915154766</v>
       </c>
       <c r="F23">
-        <v>1.01724541661747</v>
+        <v>1.04874696401086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041437591524448</v>
+        <v>1.037724596994563</v>
       </c>
       <c r="J23">
-        <v>1.019881796632514</v>
+        <v>1.034070499962568</v>
       </c>
       <c r="K23">
-        <v>1.029575180291777</v>
+        <v>1.042343793326518</v>
       </c>
       <c r="L23">
-        <v>1.014115326667693</v>
+        <v>1.03119516268764</v>
       </c>
       <c r="M23">
-        <v>1.032177723465149</v>
+        <v>1.052340147413465</v>
       </c>
       <c r="N23">
-        <v>1.010489059332764</v>
+        <v>1.01534905942347</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9952107476122607</v>
+        <v>1.028445510845411</v>
       </c>
       <c r="D24">
-        <v>1.019057643129263</v>
+        <v>1.039629164603795</v>
       </c>
       <c r="E24">
-        <v>1.00335170397244</v>
+        <v>1.028479222280455</v>
       </c>
       <c r="F24">
-        <v>1.022743702170569</v>
+        <v>1.049906808397585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043149389993561</v>
+        <v>1.037991459028511</v>
       </c>
       <c r="J24">
-        <v>1.022894410511281</v>
+        <v>1.034686304727566</v>
       </c>
       <c r="K24">
-        <v>1.032758151461146</v>
+        <v>1.042986610138653</v>
       </c>
       <c r="L24">
-        <v>1.017320214490841</v>
+        <v>1.031875740241889</v>
       </c>
       <c r="M24">
-        <v>1.036382847855223</v>
+        <v>1.053229046540665</v>
       </c>
       <c r="N24">
-        <v>1.011502491581898</v>
+        <v>1.015555107651351</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001802512765955</v>
+        <v>1.029772025954283</v>
       </c>
       <c r="D25">
-        <v>1.024086686913541</v>
+        <v>1.040695411964735</v>
       </c>
       <c r="E25">
-        <v>1.008453047523037</v>
+        <v>1.029595122667179</v>
       </c>
       <c r="F25">
-        <v>1.0289408625247</v>
+        <v>1.051257933688918</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045039210194936</v>
+        <v>1.03829762191572</v>
       </c>
       <c r="J25">
-        <v>1.026269367065791</v>
+        <v>1.035401368109451</v>
       </c>
       <c r="K25">
-        <v>1.03632225052898</v>
+        <v>1.043732635420937</v>
       </c>
       <c r="L25">
-        <v>1.02092154288379</v>
+        <v>1.032667280654844</v>
       </c>
       <c r="M25">
-        <v>1.041105926944373</v>
+        <v>1.054262662572873</v>
       </c>
       <c r="N25">
-        <v>1.012637552977724</v>
+        <v>1.015794228484633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030832953909584</v>
+        <v>1.006893253976132</v>
       </c>
       <c r="D2">
-        <v>1.04154846395327</v>
+        <v>1.027983979609927</v>
       </c>
       <c r="E2">
-        <v>1.030489117611669</v>
+        <v>1.012416057822199</v>
       </c>
       <c r="F2">
-        <v>1.052339690071501</v>
+        <v>1.033746419077045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038538951906923</v>
+        <v>1.046472299702509</v>
       </c>
       <c r="J2">
-        <v>1.035972018432981</v>
+        <v>1.028869725790694</v>
       </c>
       <c r="K2">
-        <v>1.044327666703657</v>
+        <v>1.039066747862391</v>
       </c>
       <c r="L2">
-        <v>1.033299981444586</v>
+        <v>1.02370508538262</v>
       </c>
       <c r="M2">
-        <v>1.055088694902679</v>
+        <v>1.044754810544993</v>
       </c>
       <c r="N2">
-        <v>1.01598494316569</v>
+        <v>1.013511817299246</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03160493092163</v>
+        <v>1.010499071730464</v>
       </c>
       <c r="D3">
-        <v>1.042169336270755</v>
+        <v>1.03075145254279</v>
       </c>
       <c r="E3">
-        <v>1.031140494892122</v>
+        <v>1.01523588165909</v>
       </c>
       <c r="F3">
-        <v>1.053127480209819</v>
+        <v>1.037160928201334</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038712502810314</v>
+        <v>1.047471499652516</v>
       </c>
       <c r="J3">
-        <v>1.036386520944202</v>
+        <v>1.030707556659995</v>
       </c>
       <c r="K3">
-        <v>1.044759687535406</v>
+        <v>1.041005419814878</v>
       </c>
       <c r="L3">
-        <v>1.033760146016331</v>
+        <v>1.025677458527081</v>
       </c>
       <c r="M3">
-        <v>1.055689375381174</v>
+        <v>1.047339421384267</v>
       </c>
       <c r="N3">
-        <v>1.016123405705688</v>
+        <v>1.014129510283027</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032105203430294</v>
+        <v>1.01279232472645</v>
       </c>
       <c r="D4">
-        <v>1.042571755423777</v>
+        <v>1.03251451771659</v>
       </c>
       <c r="E4">
-        <v>1.031563012118707</v>
+        <v>1.017034955575988</v>
       </c>
       <c r="F4">
-        <v>1.053638302146798</v>
+        <v>1.039337265005896</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038824021425752</v>
+        <v>1.048099439205776</v>
       </c>
       <c r="J4">
-        <v>1.036654797599265</v>
+        <v>1.031874367060894</v>
       </c>
       <c r="K4">
-        <v>1.045039213645047</v>
+        <v>1.042235741006972</v>
       </c>
       <c r="L4">
-        <v>1.034058249533407</v>
+        <v>1.026932040857492</v>
       </c>
       <c r="M4">
-        <v>1.056078464758798</v>
+        <v>1.048983019481013</v>
       </c>
       <c r="N4">
-        <v>1.01621299114758</v>
+        <v>1.014521567903177</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032315696053148</v>
+        <v>1.013747115881983</v>
       </c>
       <c r="D5">
-        <v>1.042741091645451</v>
+        <v>1.033249248167869</v>
       </c>
       <c r="E5">
-        <v>1.031740883575571</v>
+        <v>1.017785333719196</v>
       </c>
       <c r="F5">
-        <v>1.053853305417767</v>
+        <v>1.040244491262861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038870716226649</v>
+        <v>1.048359043501314</v>
       </c>
       <c r="J5">
-        <v>1.036767595527379</v>
+        <v>1.032359656455321</v>
       </c>
       <c r="K5">
-        <v>1.045156720122057</v>
+        <v>1.042747317396713</v>
       </c>
       <c r="L5">
-        <v>1.034183653680741</v>
+        <v>1.027454401175474</v>
       </c>
       <c r="M5">
-        <v>1.056242134006925</v>
+        <v>1.049667253862755</v>
       </c>
       <c r="N5">
-        <v>1.016250650210453</v>
+        <v>1.014684601714075</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032351049076695</v>
+        <v>1.013906892325263</v>
       </c>
       <c r="D6">
-        <v>1.042769533221081</v>
+        <v>1.033372238336023</v>
       </c>
       <c r="E6">
-        <v>1.031770763297603</v>
+        <v>1.017910981052189</v>
       </c>
       <c r="F6">
-        <v>1.053889420227764</v>
+        <v>1.040396372736002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038878545463829</v>
+        <v>1.048402377359327</v>
       </c>
       <c r="J6">
-        <v>1.036786535602795</v>
+        <v>1.032440835006557</v>
       </c>
       <c r="K6">
-        <v>1.045176449565029</v>
+        <v>1.04283288553937</v>
       </c>
       <c r="L6">
-        <v>1.034204714321173</v>
+        <v>1.027541814181324</v>
       </c>
       <c r="M6">
-        <v>1.056269620374526</v>
+        <v>1.049781749603715</v>
       </c>
       <c r="N6">
-        <v>1.01625697316296</v>
+        <v>1.014711872129844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032108015345763</v>
+        <v>1.012805118851668</v>
       </c>
       <c r="D7">
-        <v>1.042574017479549</v>
+        <v>1.032524360399821</v>
       </c>
       <c r="E7">
-        <v>1.031565387884792</v>
+        <v>1.017045005343711</v>
       </c>
       <c r="F7">
-        <v>1.053641174036813</v>
+        <v>1.039349417407798</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038824646102189</v>
+        <v>1.04810292517129</v>
       </c>
       <c r="J7">
-        <v>1.036656304755705</v>
+        <v>1.031880871942882</v>
       </c>
       <c r="K7">
-        <v>1.045040783798916</v>
+        <v>1.042242598754802</v>
       </c>
       <c r="L7">
-        <v>1.034059924871648</v>
+        <v>1.026939040407752</v>
       </c>
       <c r="M7">
-        <v>1.056080651340092</v>
+        <v>1.04899218850061</v>
       </c>
       <c r="N7">
-        <v>1.016213494360868</v>
+        <v>1.014523753339795</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031093690347325</v>
+        <v>1.008120296692645</v>
       </c>
       <c r="D8">
-        <v>1.041758150077691</v>
+        <v>1.02892509056326</v>
       </c>
       <c r="E8">
-        <v>1.030709038620623</v>
+        <v>1.013374418268228</v>
       </c>
       <c r="F8">
-        <v>1.052605704762043</v>
+        <v>1.034907348666152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038597765363863</v>
+        <v>1.046813882584163</v>
       </c>
       <c r="J8">
-        <v>1.036112087068614</v>
+        <v>1.029495540307418</v>
       </c>
       <c r="K8">
-        <v>1.044473673489148</v>
+        <v>1.039727004631104</v>
       </c>
       <c r="L8">
-        <v>1.033455423636187</v>
+        <v>1.024376221603388</v>
       </c>
       <c r="M8">
-        <v>1.055291611909925</v>
+        <v>1.045634360061705</v>
       </c>
       <c r="N8">
-        <v>1.016031738819176</v>
+        <v>1.013722173988295</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029312162420187</v>
+        <v>0.9995462818483852</v>
       </c>
       <c r="D9">
-        <v>1.040325730714888</v>
+        <v>1.022363122223289</v>
       </c>
       <c r="E9">
-        <v>1.029208037789819</v>
+        <v>1.006703192289176</v>
       </c>
       <c r="F9">
-        <v>1.050789360581854</v>
+        <v>1.026816528499079</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038192030413034</v>
+        <v>1.044396434136671</v>
       </c>
       <c r="J9">
-        <v>1.035153669020431</v>
+        <v>1.025115072252788</v>
       </c>
       <c r="K9">
-        <v>1.043474261674146</v>
+        <v>1.035103501521989</v>
       </c>
       <c r="L9">
-        <v>1.032392932181632</v>
+        <v>1.019688443052152</v>
       </c>
       <c r="M9">
-        <v>1.053904436500924</v>
+        <v>1.039489009089448</v>
       </c>
       <c r="N9">
-        <v>1.015711414147361</v>
+        <v>1.012249381739773</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028128519707042</v>
+        <v>0.9935972448120581</v>
       </c>
       <c r="D10">
-        <v>1.039374427448117</v>
+        <v>1.01782968138867</v>
       </c>
       <c r="E10">
-        <v>1.028212865393521</v>
+        <v>1.002108053452428</v>
       </c>
       <c r="F10">
-        <v>1.04958416665052</v>
+        <v>1.021231031276789</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037917592704554</v>
+        <v>1.042681565776255</v>
       </c>
       <c r="J10">
-        <v>1.034515182027132</v>
+        <v>1.022067218725513</v>
       </c>
       <c r="K10">
-        <v>1.042808012756944</v>
+        <v>1.031884308491193</v>
       </c>
       <c r="L10">
-        <v>1.031686519166907</v>
+        <v>1.016439350370811</v>
       </c>
       <c r="M10">
-        <v>1.052981922494564</v>
+        <v>1.035227249436294</v>
       </c>
       <c r="N10">
-        <v>1.015497860858315</v>
+        <v>1.011224244527996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027616972441739</v>
+        <v>0.9909615427134898</v>
       </c>
       <c r="D11">
-        <v>1.038963391682741</v>
+        <v>1.015826358084724</v>
       </c>
       <c r="E11">
-        <v>1.027783273283039</v>
+        <v>1.000080683637352</v>
       </c>
       <c r="F11">
-        <v>1.049063684833333</v>
+        <v>1.018763565639241</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03779783183638</v>
+        <v>1.041913318019548</v>
       </c>
       <c r="J11">
-        <v>1.034238835748236</v>
+        <v>1.020715226857283</v>
       </c>
       <c r="K11">
-        <v>1.04251954410532</v>
+        <v>1.030455859322292</v>
       </c>
       <c r="L11">
-        <v>1.031381107302203</v>
+        <v>1.015001078543518</v>
       </c>
       <c r="M11">
-        <v>1.05258302527904</v>
+        <v>1.033340096380648</v>
       </c>
       <c r="N11">
-        <v>1.01540539521777</v>
+        <v>1.010769438109351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027427109887987</v>
+        <v>0.9899731513096118</v>
       </c>
       <c r="D12">
-        <v>1.038810849671759</v>
+        <v>1.015075941244477</v>
       </c>
       <c r="E12">
-        <v>1.027623904641162</v>
+        <v>0.9993217384500587</v>
       </c>
       <c r="F12">
-        <v>1.048870563589304</v>
+        <v>1.017839381922378</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037753208769721</v>
+        <v>1.041623986711683</v>
       </c>
       <c r="J12">
-        <v>1.03413620825768</v>
+        <v>1.020208012145886</v>
       </c>
       <c r="K12">
-        <v>1.04241239873056</v>
+        <v>1.02991989957436</v>
       </c>
       <c r="L12">
-        <v>1.031267735812091</v>
+        <v>1.014461944427198</v>
       </c>
       <c r="M12">
-        <v>1.052434942728683</v>
+        <v>1.032632606425669</v>
       </c>
       <c r="N12">
-        <v>1.015371050510843</v>
+        <v>1.010598804463796</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02746782928165</v>
+        <v>0.990185595500043</v>
       </c>
       <c r="D13">
-        <v>1.038843564310394</v>
+        <v>1.015237196926058</v>
       </c>
       <c r="E13">
-        <v>1.027658080627266</v>
+        <v>0.9994848051835064</v>
       </c>
       <c r="F13">
-        <v>1.048911979262937</v>
+        <v>1.01803797410594</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037762786825672</v>
+        <v>1.041686230719215</v>
       </c>
       <c r="J13">
-        <v>1.034158221283785</v>
+        <v>1.020317041787882</v>
       </c>
       <c r="K13">
-        <v>1.042435381539321</v>
+        <v>1.030035110834585</v>
       </c>
       <c r="L13">
-        <v>1.031292051095675</v>
+        <v>1.01457781506043</v>
       </c>
       <c r="M13">
-        <v>1.052466703032886</v>
+        <v>1.032784664331437</v>
       </c>
       <c r="N13">
-        <v>1.015378417507104</v>
+        <v>1.010635483783404</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02760127529538</v>
+        <v>0.9908800355970482</v>
       </c>
       <c r="D14">
-        <v>1.03895077974733</v>
+        <v>1.015764458188163</v>
       </c>
       <c r="E14">
-        <v>1.027770095709217</v>
+        <v>1.000018070535984</v>
       </c>
       <c r="F14">
-        <v>1.049047717096826</v>
+        <v>1.01868733037051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037794146101454</v>
+        <v>1.04188948343833</v>
       </c>
       <c r="J14">
-        <v>1.034230352115562</v>
+        <v>1.020673403904374</v>
       </c>
       <c r="K14">
-        <v>1.04251068733017</v>
+        <v>1.03041166737051</v>
       </c>
       <c r="L14">
-        <v>1.031371734500386</v>
+        <v>1.014956614494787</v>
       </c>
       <c r="M14">
-        <v>1.052570782971363</v>
+        <v>1.033281749421009</v>
       </c>
       <c r="N14">
-        <v>1.015402556247273</v>
+        <v>1.010755368472195</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027683515575282</v>
+        <v>0.9913066485287344</v>
       </c>
       <c r="D15">
-        <v>1.039016856662816</v>
+        <v>1.016088480039835</v>
       </c>
       <c r="E15">
-        <v>1.027839138593696</v>
+        <v>1.000345845267495</v>
       </c>
       <c r="F15">
-        <v>1.049131377402729</v>
+        <v>1.019086396043357</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037813449251359</v>
+        <v>1.04201418474138</v>
       </c>
       <c r="J15">
-        <v>1.034274796969239</v>
+        <v>1.020892299016031</v>
       </c>
       <c r="K15">
-        <v>1.042557086384255</v>
+        <v>1.03064295901327</v>
       </c>
       <c r="L15">
-        <v>1.031420839671908</v>
+        <v>1.015189351047816</v>
       </c>
       <c r="M15">
-        <v>1.052634921460633</v>
+        <v>1.033587148966017</v>
       </c>
       <c r="N15">
-        <v>1.015417429088865</v>
+        <v>1.010829006546593</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028162490184197</v>
+        <v>0.9937708755416365</v>
       </c>
       <c r="D16">
-        <v>1.039401725354505</v>
+        <v>1.017961766064012</v>
       </c>
       <c r="E16">
-        <v>1.028241404080678</v>
+        <v>1.002241790467532</v>
       </c>
       <c r="F16">
-        <v>1.049618738481409</v>
+        <v>1.021393732363848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037925521365476</v>
+        <v>1.042732001241294</v>
       </c>
       <c r="J16">
-        <v>1.03453352492398</v>
+        <v>1.022156251381791</v>
       </c>
       <c r="K16">
-        <v>1.042827158052248</v>
+        <v>1.031978367203961</v>
       </c>
       <c r="L16">
-        <v>1.031706798370745</v>
+        <v>1.01653412720896</v>
       </c>
       <c r="M16">
-        <v>1.053008407894739</v>
+        <v>1.035351593053504</v>
       </c>
       <c r="N16">
-        <v>1.015503997632247</v>
+        <v>1.011254193645803</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02846320148616</v>
+        <v>0.9953003526230987</v>
       </c>
       <c r="D17">
-        <v>1.039643381649915</v>
+        <v>1.019125872415976</v>
       </c>
       <c r="E17">
-        <v>1.028494090551367</v>
+        <v>1.003420826688866</v>
       </c>
       <c r="F17">
-        <v>1.04992481697765</v>
+        <v>1.022827755884894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037995573482124</v>
+        <v>1.04317531321936</v>
       </c>
       <c r="J17">
-        <v>1.034695851981004</v>
+        <v>1.022940337057018</v>
       </c>
       <c r="K17">
-        <v>1.042996573691336</v>
+        <v>1.032806665079941</v>
       </c>
       <c r="L17">
-        <v>1.031886299513636</v>
+        <v>1.017369141101803</v>
       </c>
       <c r="M17">
-        <v>1.053242836642082</v>
+        <v>1.036447030192244</v>
       </c>
       <c r="N17">
-        <v>1.015558301305822</v>
+        <v>1.011517939692594</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028638695516312</v>
+        <v>0.9961867358350265</v>
       </c>
       <c r="D18">
-        <v>1.039784420914945</v>
+        <v>1.019801002887681</v>
       </c>
       <c r="E18">
-        <v>1.028641605913258</v>
+        <v>1.004104922846748</v>
       </c>
       <c r="F18">
-        <v>1.050103479911044</v>
+        <v>1.023659500266828</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038036344149508</v>
+        <v>1.043431417728678</v>
       </c>
       <c r="J18">
-        <v>1.034790546363701</v>
+        <v>1.023394581793752</v>
       </c>
       <c r="K18">
-        <v>1.043095392944237</v>
+        <v>1.033286479733147</v>
       </c>
       <c r="L18">
-        <v>1.031991044704371</v>
+        <v>1.017853174180203</v>
       </c>
       <c r="M18">
-        <v>1.053379628622207</v>
+        <v>1.037081965518269</v>
       </c>
       <c r="N18">
-        <v>1.01558997610563</v>
+        <v>1.01167072924085</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02869855036614</v>
+        <v>0.996488008676733</v>
       </c>
       <c r="D19">
-        <v>1.039832526055053</v>
+        <v>1.020030554984924</v>
       </c>
       <c r="E19">
-        <v>1.028691926423018</v>
+        <v>1.004337575586358</v>
       </c>
       <c r="F19">
-        <v>1.05016442176333</v>
+        <v>1.02394231599979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038050230680336</v>
+        <v>1.043518326691286</v>
       </c>
       <c r="J19">
-        <v>1.034822836653465</v>
+        <v>1.023548947129225</v>
       </c>
       <c r="K19">
-        <v>1.04312908804566</v>
+        <v>1.033449526866997</v>
       </c>
       <c r="L19">
-        <v>1.032026767729915</v>
+        <v>1.018017710615169</v>
       </c>
       <c r="M19">
-        <v>1.053426280196295</v>
+        <v>1.037297788189448</v>
       </c>
       <c r="N19">
-        <v>1.01560077644413</v>
+        <v>1.011722650312583</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028430928250044</v>
+        <v>0.9951368502203959</v>
       </c>
       <c r="D20">
-        <v>1.039617445385332</v>
+        <v>1.01900137710438</v>
       </c>
       <c r="E20">
-        <v>1.028466966469387</v>
+        <v>1.00329470290698</v>
       </c>
       <c r="F20">
-        <v>1.049891963927565</v>
+        <v>1.022674386779051</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037988066809464</v>
+        <v>1.043128006485994</v>
       </c>
       <c r="J20">
-        <v>1.034678434598092</v>
+        <v>1.022856533913109</v>
       </c>
       <c r="K20">
-        <v>1.042978396781357</v>
+        <v>1.032718141001571</v>
       </c>
       <c r="L20">
-        <v>1.031867036052456</v>
+        <v>1.017279865281505</v>
       </c>
       <c r="M20">
-        <v>1.053217679092395</v>
+        <v>1.036329917100721</v>
       </c>
       <c r="N20">
-        <v>1.015552474992092</v>
+        <v>1.011489751159247</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027561974644841</v>
+        <v>0.9906758023998722</v>
       </c>
       <c r="D21">
-        <v>1.03891920373114</v>
+        <v>1.015609368577368</v>
       </c>
       <c r="E21">
-        <v>1.027737104494469</v>
+        <v>0.9998612017071016</v>
       </c>
       <c r="F21">
-        <v>1.04900773990356</v>
+        <v>1.018496325071382</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03778491539449</v>
+        <v>1.04182974107122</v>
       </c>
       <c r="J21">
-        <v>1.034209110825226</v>
+        <v>1.020568604338563</v>
       </c>
       <c r="K21">
-        <v>1.042488511509257</v>
+        <v>1.03030093062624</v>
       </c>
       <c r="L21">
-        <v>1.031348267721955</v>
+        <v>1.014845204142082</v>
       </c>
       <c r="M21">
-        <v>1.052540131644467</v>
+        <v>1.033135552149015</v>
       </c>
       <c r="N21">
-        <v>1.015395447954233</v>
+        <v>1.010720112785222</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027016491357679</v>
+        <v>0.98781651338919</v>
       </c>
       <c r="D22">
-        <v>1.038480973412604</v>
+        <v>1.013440140658328</v>
       </c>
       <c r="E22">
-        <v>1.027279375219727</v>
+        <v>0.997668222223545</v>
       </c>
       <c r="F22">
-        <v>1.048453002793626</v>
+        <v>1.015824945466137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037656384840167</v>
+        <v>1.040990443311247</v>
       </c>
       <c r="J22">
-        <v>1.033914143702942</v>
+        <v>1.019100924850171</v>
       </c>
       <c r="K22">
-        <v>1.042180529279563</v>
+        <v>1.028749966305926</v>
       </c>
       <c r="L22">
-        <v>1.031022515235892</v>
+        <v>1.013286014047242</v>
       </c>
       <c r="M22">
-        <v>1.05211462707166</v>
+        <v>1.031089293271078</v>
       </c>
       <c r="N22">
-        <v>1.015296725716248</v>
+        <v>1.010226353592585</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027305579972314</v>
+        <v>0.989337577443394</v>
       </c>
       <c r="D23">
-        <v>1.038713212798998</v>
+        <v>1.014593634959617</v>
       </c>
       <c r="E23">
-        <v>1.027521915154766</v>
+        <v>0.9988340852838631</v>
       </c>
       <c r="F23">
-        <v>1.04874696401086</v>
+        <v>1.017245416617471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037724596994563</v>
+        <v>1.041437591524448</v>
       </c>
       <c r="J23">
-        <v>1.034070499962568</v>
+        <v>1.019881796632514</v>
       </c>
       <c r="K23">
-        <v>1.042343793326518</v>
+        <v>1.029575180291778</v>
       </c>
       <c r="L23">
-        <v>1.03119516268764</v>
+        <v>1.014115326667693</v>
       </c>
       <c r="M23">
-        <v>1.052340147413465</v>
+        <v>1.032177723465149</v>
       </c>
       <c r="N23">
-        <v>1.01534905942347</v>
+        <v>1.010489059332764</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028445510845411</v>
+        <v>0.9952107476122598</v>
       </c>
       <c r="D24">
-        <v>1.039629164603795</v>
+        <v>1.019057643129262</v>
       </c>
       <c r="E24">
-        <v>1.028479222280455</v>
+        <v>1.003351703972439</v>
       </c>
       <c r="F24">
-        <v>1.049906808397585</v>
+        <v>1.022743702170568</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037991459028511</v>
+        <v>1.04314938999356</v>
       </c>
       <c r="J24">
-        <v>1.034686304727566</v>
+        <v>1.02289441051128</v>
       </c>
       <c r="K24">
-        <v>1.042986610138653</v>
+        <v>1.032758151461145</v>
       </c>
       <c r="L24">
-        <v>1.031875740241889</v>
+        <v>1.01732021449084</v>
       </c>
       <c r="M24">
-        <v>1.053229046540665</v>
+        <v>1.036382847855222</v>
       </c>
       <c r="N24">
-        <v>1.015555107651351</v>
+        <v>1.011502491581898</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029772025954283</v>
+        <v>1.001802512765955</v>
       </c>
       <c r="D25">
-        <v>1.040695411964735</v>
+        <v>1.024086686913541</v>
       </c>
       <c r="E25">
-        <v>1.029595122667179</v>
+        <v>1.008453047523036</v>
       </c>
       <c r="F25">
-        <v>1.051257933688918</v>
+        <v>1.028940862524699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03829762191572</v>
+        <v>1.045039210194936</v>
       </c>
       <c r="J25">
-        <v>1.035401368109451</v>
+        <v>1.026269367065791</v>
       </c>
       <c r="K25">
-        <v>1.043732635420937</v>
+        <v>1.036322250528979</v>
       </c>
       <c r="L25">
-        <v>1.032667280654844</v>
+        <v>1.020921542883789</v>
       </c>
       <c r="M25">
-        <v>1.054262662572873</v>
+        <v>1.041105926944372</v>
       </c>
       <c r="N25">
-        <v>1.015794228484633</v>
+        <v>1.012637552977724</v>
       </c>
     </row>
   </sheetData>
